--- a/Details.xlsx
+++ b/Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujit Singh\Desktop\BharatSpiceWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6FBA8-E0E0-4654-8D6F-98159F37B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CE570-71E9-496A-894C-094CE8B1280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE1EE7FA-8155-4B77-AA66-490FF771BDBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Seller</t>
   </si>
@@ -186,13 +186,16 @@
   </si>
   <si>
     <t>Seller pack good and through carrier put goods beside ship and from here risk and cost gets transferred to Buyer, Insurance is negotiable</t>
+  </si>
+  <si>
+    <t>Terms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +211,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +251,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -263,14 +292,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -606,219 +641,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDECF7F-3D9E-40F7-8057-DB1902A19EF2}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="9" max="9" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="145.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="145.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H11" s="2" t="s">
+    <row r="11" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H12" s="2" t="s">
+    <row r="12" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Details.xlsx
+++ b/Details.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujit Singh\Desktop\BharatSpiceWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CE570-71E9-496A-894C-094CE8B1280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9381EAC1-CCF1-4C08-83BF-55A0763CEB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE1EE7FA-8155-4B77-AA66-490FF771BDBA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="8" xr2:uid="{AE1EE7FA-8155-4B77-AA66-490FF771BDBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Incoterms" sheetId="1" r:id="rId1"/>
+    <sheet name="Expenses" sheetId="6" state="hidden" r:id="rId2"/>
+    <sheet name="Technical Terms" sheetId="4" r:id="rId3"/>
+    <sheet name="Documents Needed" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Supplier Details" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="MasterData" sheetId="7" r:id="rId7"/>
+    <sheet name="Products" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Amazon Product WishList" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="185">
   <si>
     <t>Seller</t>
   </si>
@@ -189,13 +197,415 @@
   </si>
   <si>
     <t>Terms</t>
+  </si>
+  <si>
+    <t>LLP Registration</t>
+  </si>
+  <si>
+    <t>Import Export Code (IEC)</t>
+  </si>
+  <si>
+    <t>Registration with Spice Board of India</t>
+  </si>
+  <si>
+    <t>FSSAI License</t>
+  </si>
+  <si>
+    <t>RCMC – Registration Cum Membership Certificate</t>
+  </si>
+  <si>
+    <t>MSME/Udyam Registration (Optional but Recommended)</t>
+  </si>
+  <si>
+    <t>Trademark Registration</t>
+  </si>
+  <si>
+    <t>GST Registration</t>
+  </si>
+  <si>
+    <t>Bank Account for Export</t>
+  </si>
+  <si>
+    <t>Shipping &amp; Logistics Setup</t>
+  </si>
+  <si>
+    <t>Shipping Bill (for every consignment)</t>
+  </si>
+  <si>
+    <t>Commercial Invoice</t>
+  </si>
+  <si>
+    <t>Packing List</t>
+  </si>
+  <si>
+    <t>Bill of Lading / Airway Bill</t>
+  </si>
+  <si>
+    <t>Certificate of Origin (from Chamber of Commerce)</t>
+  </si>
+  <si>
+    <t>Insurance Certificate (marine insurance)</t>
+  </si>
+  <si>
+    <t>Product Testing/Phytosanitary Certificate (if importing country requires)</t>
+  </si>
+  <si>
+    <t>Export Agreement</t>
+  </si>
+  <si>
+    <t>Product, quantity, payment terms</t>
+  </si>
+  <si>
+    <t>Incoterms (FOB/CIF/CFR)</t>
+  </si>
+  <si>
+    <t>Shipment date and destination</t>
+  </si>
+  <si>
+    <t>Business Setup Documents</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Price per kg</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Providing Lab Test</t>
+  </si>
+  <si>
+    <t>Providing Packaging</t>
+  </si>
+  <si>
+    <t>ECGC</t>
+  </si>
+  <si>
+    <t>Export Credit Garenty Certificate</t>
+  </si>
+  <si>
+    <t>For checking buyer credit worthyness, we can check Buyer is trustable or not . If ECGC gives green signal then we can proceed</t>
+  </si>
+  <si>
+    <t>RCMC</t>
+  </si>
+  <si>
+    <t>Registration Cum Membershio Certificate</t>
+  </si>
+  <si>
+    <t>it can be done from Export promotion council</t>
+  </si>
+  <si>
+    <t>APEDA</t>
+  </si>
+  <si>
+    <t>We can get RCMC from Apdea</t>
+  </si>
+  <si>
+    <t>Register on local chamber of commerce</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>Certificate of Origin</t>
+  </si>
+  <si>
+    <t>FTA</t>
+  </si>
+  <si>
+    <t>Forign Trade Agreement ( If India has signed this FTA with any country then there would not be any Import duty on goods)</t>
+  </si>
+  <si>
+    <t>Lab Report</t>
+  </si>
+  <si>
+    <t>3rd Party Incepection Report</t>
+  </si>
+  <si>
+    <t>Marine Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Name Registration</t>
+  </si>
+  <si>
+    <t>LLP Firm Registration</t>
+  </si>
+  <si>
+    <t>Expense Type</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
+  <si>
+    <t>Under Process</t>
+  </si>
+  <si>
+    <t>Sargunam Turmeric Chennai</t>
+  </si>
+  <si>
+    <t>Turmeric</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Packing Size</t>
+  </si>
+  <si>
+    <t>25 kg</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>MS Corporation</t>
+  </si>
+  <si>
+    <t>Turmeric Powder</t>
+  </si>
+  <si>
+    <t>Turmeric Finger</t>
+  </si>
+  <si>
+    <t>50 kg</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>SLVB Traders</t>
+  </si>
+  <si>
+    <t>Dry Ginger</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Done by CHA</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>IEX Code</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Total Quantity Purchased</t>
+  </si>
+  <si>
+    <t>Transportation Charges</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Buying Date</t>
+  </si>
+  <si>
+    <t>Packaging Charges</t>
+  </si>
+  <si>
+    <t>Total Price without Transportation</t>
+  </si>
+  <si>
+    <t>Total Price with Transportation</t>
+  </si>
+  <si>
+    <t>Quality Check Charges</t>
+  </si>
+  <si>
+    <t>Custom Clearance Charges</t>
+  </si>
+  <si>
+    <t>Buyers Name</t>
+  </si>
+  <si>
+    <t>Total Shipment Cost</t>
+  </si>
+  <si>
+    <t>Final Shipment Date</t>
+  </si>
+  <si>
+    <t>Buyers Location</t>
+  </si>
+  <si>
+    <t>Amazon FBA</t>
+  </si>
+  <si>
+    <t>IOR and Clearance Charges</t>
+  </si>
+  <si>
+    <t>Product Id</t>
+  </si>
+  <si>
+    <t>Red Chilli Powder</t>
+  </si>
+  <si>
+    <t>Red Chilli</t>
+  </si>
+  <si>
+    <t>Coriander</t>
+  </si>
+  <si>
+    <t>Black Pepper</t>
+  </si>
+  <si>
+    <t>MSME</t>
+  </si>
+  <si>
+    <t>Sign Board</t>
+  </si>
+  <si>
+    <t>Stamp 2</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Arts, Crafts &amp; Sewing</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Beauty &amp; Personal Care</t>
+  </si>
+  <si>
+    <t>Camera &amp; Photo Products</t>
+  </si>
+  <si>
+    <t>Cell Phones &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Clothing, Shoes &amp; Jewelry</t>
+  </si>
+  <si>
+    <t>Computers &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Digital Music</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Gift Cards</t>
+  </si>
+  <si>
+    <t>Grocery &amp; Gourmet Food</t>
+  </si>
+  <si>
+    <t>Handmade Products</t>
+  </si>
+  <si>
+    <t>Health &amp; Household</t>
+  </si>
+  <si>
+    <t>Home &amp; Kitchen</t>
+  </si>
+  <si>
+    <t>Kitchen &amp; Dining</t>
+  </si>
+  <si>
+    <t>Musical Instruments</t>
+  </si>
+  <si>
+    <t>Office Products</t>
+  </si>
+  <si>
+    <t>Patio, Lawn &amp; Garden</t>
+  </si>
+  <si>
+    <t>Pet Supplies</t>
+  </si>
+  <si>
+    <t>Sports &amp; Outdoors</t>
+  </si>
+  <si>
+    <t>Tools &amp; Home Improvement</t>
+  </si>
+  <si>
+    <t>Toys &amp; Games</t>
+  </si>
+  <si>
+    <t>Unique Finds</t>
+  </si>
+  <si>
+    <t>Product Name in Detail</t>
+  </si>
+  <si>
+    <t>Amazon Price</t>
+  </si>
+  <si>
+    <t>Amazon FBA Price</t>
+  </si>
+  <si>
+    <t>Smillimar Product on Alibaba</t>
+  </si>
+  <si>
+    <t>Alibaba Price</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>is Verified Supplier</t>
+  </si>
+  <si>
+    <t>Amazon Ranking</t>
+  </si>
+  <si>
+    <t>is Verified</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Link for the Product on Alibaba</t>
+  </si>
+  <si>
+    <t>Link for the Product on Amazon</t>
+  </si>
+  <si>
+    <t>Link of Amazon FBA Price Calculator</t>
+  </si>
+  <si>
+    <t>https://sellercentral.amazon.com/hz/fba/profitabilitycalculator/index?lang=en_US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +629,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,12 +690,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -287,25 +724,269 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -641,214 +1322,1350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDECF7F-3D9E-40F7-8057-DB1902A19EF2}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="145.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="145.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09244BB6-C5FD-40EE-BE7D-33BFB495A477}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F4F219-1C1F-4A0A-A866-8136B8782200}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:F1"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C6CBB7-4BAD-4E68-A0D1-3E8685D38BDA}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="25"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C0C546-454D-4A00-BDD0-5A7203E2E708}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2">
+        <v>8220274600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>160</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3">
+        <v>9360312444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4">
+        <v>170</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4">
+        <v>9360312444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5">
+        <v>9738640146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E477B3-A3F1-49BE-948B-5536F58D6EBE}">
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CEA715-66C5-43F9-9AF1-67A7CABF24EB}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9729EBF4-0DAB-42BC-AED6-D85D0618118F}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F88386-85D4-4D74-AA9F-C03CB833C28D}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7D391FE-D28B-415A-83A5-2BA4D691C1CC}">
+          <x14:formula1>
+            <xm:f>Products!$E$2:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{401C517B-BC66-4B0B-A713-3E68A9980BF5}">
+          <x14:formula1>
+            <xm:f>Products!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J50</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>